--- a/immowelt_price_guide/results-selected-features-aug.xlsx
+++ b/immowelt_price_guide/results-selected-features-aug.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>tags.mlflow.runName</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>wue-rent-selected-features</t>
-  </si>
-  <si>
-    <t>wue-rent-selected-features-aug-50</t>
-  </si>
-  <si>
-    <t>wue-rent-selected-features-aug-120</t>
-  </si>
-  <si>
-    <t>results-selected-features-aug-1000</t>
   </si>
 </sst>
 </file>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,363 +546,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>285.5564</v>
-      </c>
-      <c r="D9">
-        <v>0.5802888162379594</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>280.7837056581914</v>
-      </c>
-      <c r="D10">
-        <v>0.5328610830513449</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>267.6286757562098</v>
-      </c>
-      <c r="D11">
-        <v>0.5668465827366094</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>250.3420118995949</v>
-      </c>
-      <c r="D12">
-        <v>0.5399929892916279</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>244.0251551907168</v>
-      </c>
-      <c r="D13">
-        <v>0.6913727748875907</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>225.4809182921333</v>
-      </c>
-      <c r="D14">
-        <v>0.6191460759269731</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>220.6834740740741</v>
-      </c>
-      <c r="D15">
-        <v>0.7393102618747291</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>374.3940685519849</v>
-      </c>
-      <c r="D16">
-        <v>0.2992144632603488</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>324.8174975313804</v>
-      </c>
-      <c r="D17">
-        <v>0.3632429785310114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>308.0354475911458</v>
-      </c>
-      <c r="D18">
-        <v>0.3748430496254908</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>285.5564</v>
-      </c>
-      <c r="D19">
-        <v>0.5802888162379594</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>277.5716822721157</v>
-      </c>
-      <c r="D20">
-        <v>0.3910277915713322</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>268.3688592592592</v>
-      </c>
-      <c r="D21">
-        <v>0.671737244537322</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>258.4308155099769</v>
-      </c>
-      <c r="D22">
-        <v>0.6360396536680458</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>444.0650984351786</v>
-      </c>
-      <c r="D23">
-        <v>0.048234778468217</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>439.9215250662795</v>
-      </c>
-      <c r="D24">
-        <v>0.1309696509488916</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>428.7603590375761</v>
-      </c>
-      <c r="D25">
-        <v>0.04551501349080578</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>347.4193037037036</v>
-      </c>
-      <c r="D26">
-        <v>0.4271305433956926</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>322.2335044126157</v>
-      </c>
-      <c r="D27">
-        <v>0.5489252768593724</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>317.0344534070397</v>
-      </c>
-      <c r="D28">
-        <v>0.06476567305350189</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>285.5564</v>
-      </c>
-      <c r="D29">
-        <v>0.5802888162379594</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/immowelt_price_guide/results-selected-features-aug.xlsx
+++ b/immowelt_price_guide/results-selected-features-aug.xlsx
@@ -28,25 +28,25 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>baseline_rent</t>
-  </si>
-  <si>
-    <t>elasticNet</t>
+    <t>baseline-rent</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>lasso</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>elasticnet</t>
   </si>
   <si>
     <t>xgb</t>
   </si>
   <si>
-    <t>random-forest</t>
-  </si>
-  <si>
-    <t>lasso-regression</t>
-  </si>
-  <si>
-    <t>ridge-regression</t>
-  </si>
-  <si>
-    <t>linear-regression</t>
+    <t>rf</t>
   </si>
   <si>
     <t>wue-rent-selected-features</t>
@@ -407,142 +407,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>285.5564</v>
+      </c>
       <c r="C2">
-        <v>285.5564</v>
-      </c>
-      <c r="D2">
         <v>0.5802888162379594</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>269.6286147547291</v>
+      </c>
       <c r="C3">
+        <v>0.6390567862472732</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>239.3790058634541</v>
+      </c>
+      <c r="C4">
+        <v>0.7265545164339049</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>237.5479892918289</v>
+      </c>
+      <c r="C5">
+        <v>0.7345972940876591</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>231.9588210342386</v>
       </c>
-      <c r="D3">
+      <c r="C6">
         <v>0.724565201622007</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>212.3496418818721</v>
       </c>
-      <c r="D4">
+      <c r="C7">
         <v>0.7323127413822418</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>194.3803481481482</v>
       </c>
-      <c r="D5">
+      <c r="C8">
         <v>0.7450003924432409</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>128.914192850413</v>
-      </c>
-      <c r="D6">
-        <v>0.8890572006974432</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>127.3707844442308</v>
-      </c>
-      <c r="D7">
-        <v>0.8895339146362587</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>120.6903953717199</v>
-      </c>
-      <c r="D8">
-        <v>0.8965941535079274</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
